--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124081a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/roubo/cv124081a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>coeficientes de variação das estimativas de pessoas de 10 anos ou mais de idade que procuraram a polícia em decorrência do último roubo que foram vítimas, no período de referência de 365 dias (%)</t>
   </si>
@@ -31,16 +31,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -491,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,19 +529,28 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B5">
+        <v>1.935165834191609</v>
+      </c>
+      <c r="C5">
+        <v>2.000028892882381</v>
+      </c>
+      <c r="D5">
+        <v>5.176755866641304</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1.935165834191609</v>
+        <v>9.222345787571582</v>
       </c>
       <c r="C6">
-        <v>2.000028892882381</v>
+        <v>9.901720757927011</v>
       </c>
       <c r="D6">
-        <v>5.176755866641304</v>
+        <v>22.93706679076138</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -555,32 +558,41 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>9.222345787571582</v>
+        <v>4.41457681721576</v>
       </c>
       <c r="C7">
-        <v>9.901720757927011</v>
+        <v>4.774793929810458</v>
       </c>
       <c r="D7">
-        <v>22.93706679076138</v>
+        <v>11.90752542086166</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B8">
+        <v>12.16688650379192</v>
+      </c>
+      <c r="C8">
+        <v>12.60107202591376</v>
+      </c>
+      <c r="D8">
+        <v>42.80854205967118</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9">
-        <v>4.41457681721576</v>
+        <v>14.24092498290086</v>
       </c>
       <c r="C9">
-        <v>4.774793929810458</v>
+        <v>14.69887438810858</v>
       </c>
       <c r="D9">
-        <v>11.90752542086166</v>
+        <v>41.54348988958283</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -588,13 +600,13 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>12.16688650379192</v>
+        <v>11.39494386403275</v>
       </c>
       <c r="C10">
-        <v>12.60107202591376</v>
+        <v>11.87008149422544</v>
       </c>
       <c r="D10">
-        <v>42.80854205967118</v>
+        <v>29.04683867225778</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -602,13 +614,13 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>14.24092498290086</v>
+        <v>17.4764846048658</v>
       </c>
       <c r="C11">
-        <v>14.69887438810858</v>
+        <v>18.1525403144395</v>
       </c>
       <c r="D11">
-        <v>41.54348988958283</v>
+        <v>36.41569425902993</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -616,13 +628,13 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>11.39494386403275</v>
+        <v>5.989840738383144</v>
       </c>
       <c r="C12">
-        <v>11.87008149422544</v>
+        <v>6.610209856693408</v>
       </c>
       <c r="D12">
-        <v>29.04683867225778</v>
+        <v>16.04167062239148</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -630,13 +642,13 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>17.4764846048658</v>
+        <v>20.82409265217649</v>
       </c>
       <c r="C13">
-        <v>18.1525403144395</v>
+        <v>21.10352787812169</v>
       </c>
       <c r="D13">
-        <v>36.41569425902993</v>
+        <v>50.00036703647103</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -644,13 +656,13 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>5.989840738383144</v>
+        <v>18.58814710106304</v>
       </c>
       <c r="C14">
-        <v>6.610209856693408</v>
+        <v>18.97992929569818</v>
       </c>
       <c r="D14">
-        <v>16.04167062239148</v>
+        <v>45.10519803645816</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -658,13 +670,13 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>20.82409265217649</v>
+        <v>3.460871152726661</v>
       </c>
       <c r="C15">
-        <v>21.10352787812169</v>
+        <v>3.593395638916689</v>
       </c>
       <c r="D15">
-        <v>50.00036703647103</v>
+        <v>7.950373659434082</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -672,13 +684,13 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>18.58814710106304</v>
+        <v>18.53938177957901</v>
       </c>
       <c r="C16">
-        <v>18.97992929569818</v>
+        <v>21.26892190308338</v>
       </c>
       <c r="D16">
-        <v>45.10519803645816</v>
+        <v>27.9557304404074</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -686,13 +698,13 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>3.460871152726661</v>
+        <v>15.94380596329442</v>
       </c>
       <c r="C17">
-        <v>3.593395638916689</v>
+        <v>16.48785642691394</v>
       </c>
       <c r="D17">
-        <v>7.950373659434082</v>
+        <v>49.93601059116445</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -700,13 +712,13 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>18.53938177957901</v>
+        <v>5.308975235708179</v>
       </c>
       <c r="C18">
-        <v>21.26892190308338</v>
+        <v>5.526799627744665</v>
       </c>
       <c r="D18">
-        <v>27.9557304404074</v>
+        <v>10.25684543484087</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -714,13 +726,13 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>15.94380596329442</v>
+        <v>8.907327493451415</v>
       </c>
       <c r="C19">
-        <v>16.48785642691394</v>
+        <v>9.049887933434016</v>
       </c>
       <c r="D19">
-        <v>49.93601059116445</v>
+        <v>30.31511337022617</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -728,13 +740,13 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>5.308975235708179</v>
+        <v>17.16228372082132</v>
       </c>
       <c r="C20">
-        <v>5.526799627744665</v>
+        <v>17.42660265275282</v>
       </c>
       <c r="D20">
-        <v>10.25684543484087</v>
+        <v>28.94111330027654</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -742,13 +754,13 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>8.907327493451415</v>
+        <v>7.02603490725375</v>
       </c>
       <c r="C21">
-        <v>9.049887933434016</v>
+        <v>7.207951800762388</v>
       </c>
       <c r="D21">
-        <v>30.31511337022617</v>
+        <v>17.08980761428511</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -756,13 +768,13 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>17.16228372082132</v>
+        <v>14.1576834627553</v>
       </c>
       <c r="C22">
-        <v>17.42660265275282</v>
+        <v>16.98302497117318</v>
       </c>
       <c r="D22">
-        <v>28.94111330027654</v>
+        <v>24.21328587603039</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -770,13 +782,13 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>7.02603490725375</v>
+        <v>10.88824507870076</v>
       </c>
       <c r="C23">
-        <v>7.207951800762388</v>
+        <v>12.74770861611987</v>
       </c>
       <c r="D23">
-        <v>17.08980761428511</v>
+        <v>23.86005754783558</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -784,13 +796,13 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>14.1576834627553</v>
+        <v>5.418931073496581</v>
       </c>
       <c r="C24">
-        <v>16.98302497117318</v>
+        <v>5.328658222595028</v>
       </c>
       <c r="D24">
-        <v>24.21328587603039</v>
+        <v>20.02899700811819</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -798,13 +810,13 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>10.88824507870076</v>
+        <v>3.234985854931621</v>
       </c>
       <c r="C25">
-        <v>12.74770861611987</v>
+        <v>3.34908675562989</v>
       </c>
       <c r="D25">
-        <v>23.86005754783558</v>
+        <v>9.47329916252423</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -812,13 +824,13 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>5.418931073496581</v>
+        <v>5.431434306404411</v>
       </c>
       <c r="C26">
-        <v>5.328658222595028</v>
+        <v>5.734493918954669</v>
       </c>
       <c r="D26">
-        <v>20.02899700811819</v>
+        <v>18.04986639003449</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -826,13 +838,13 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>3.234985854931621</v>
+        <v>12.02687882787554</v>
       </c>
       <c r="C27">
-        <v>3.34908675562989</v>
+        <v>13.14078214809104</v>
       </c>
       <c r="D27">
-        <v>9.47329916252423</v>
+        <v>29.4756618835466</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -840,13 +852,13 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>5.431434306404411</v>
+        <v>6.585345136628473</v>
       </c>
       <c r="C28">
-        <v>5.734493918954669</v>
+        <v>6.525921164644962</v>
       </c>
       <c r="D28">
-        <v>18.04986639003449</v>
+        <v>24.09601537633613</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -854,13 +866,13 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>12.02687882787554</v>
+        <v>4.679070454036739</v>
       </c>
       <c r="C29">
-        <v>13.14078214809104</v>
+        <v>4.877283736373152</v>
       </c>
       <c r="D29">
-        <v>29.4756618835466</v>
+        <v>12.81302891514444</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -868,13 +880,13 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>6.585345136628473</v>
+        <v>4.464429652666604</v>
       </c>
       <c r="C30">
-        <v>6.525921164644962</v>
+        <v>4.588662441150027</v>
       </c>
       <c r="D30">
-        <v>24.09601537633613</v>
+        <v>14.66670981995649</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -882,13 +894,13 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>4.679070454036739</v>
+        <v>7.506445727751355</v>
       </c>
       <c r="C31">
-        <v>4.877283736373152</v>
+        <v>7.895215199098749</v>
       </c>
       <c r="D31">
-        <v>12.81302891514444</v>
+        <v>20.5352195670558</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -896,13 +908,13 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>4.464429652666604</v>
+        <v>15.43525107969367</v>
       </c>
       <c r="C32">
-        <v>4.588662441150027</v>
+        <v>15.1998405757552</v>
       </c>
       <c r="D32">
-        <v>14.66670981995649</v>
+        <v>70.70722453984588</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -910,13 +922,13 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>7.506445727751355</v>
+        <v>5.264247129113112</v>
       </c>
       <c r="C33">
-        <v>7.895215199098749</v>
+        <v>5.368959592901398</v>
       </c>
       <c r="D33">
-        <v>20.5352195670558</v>
+        <v>20.59496606599907</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -924,13 +936,13 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>15.43525107969367</v>
+        <v>4.763588810323427</v>
       </c>
       <c r="C34">
-        <v>15.1998405757552</v>
+        <v>4.798593448890793</v>
       </c>
       <c r="D34">
-        <v>70.70722453984588</v>
+        <v>14.16326633948721</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -938,13 +950,13 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>5.264247129113112</v>
+        <v>16.34313891620096</v>
       </c>
       <c r="C35">
-        <v>5.368959592901398</v>
+        <v>16.66657126012039</v>
       </c>
       <c r="D35">
-        <v>20.59496606599907</v>
+        <v>42.49947675727574</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -952,13 +964,13 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>4.763588810323427</v>
+        <v>11.75836703992843</v>
       </c>
       <c r="C36">
-        <v>4.798593448890793</v>
+        <v>12.27676612181741</v>
       </c>
       <c r="D36">
-        <v>14.16326633948721</v>
+        <v>35.9944598019538</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -966,40 +978,12 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>16.34313891620096</v>
+        <v>7.539023102129907</v>
       </c>
       <c r="C37">
-        <v>16.66657126012039</v>
+        <v>7.502498495606487</v>
       </c>
       <c r="D37">
-        <v>42.49947675727574</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>11.75836703992843</v>
-      </c>
-      <c r="C38">
-        <v>12.27676612181741</v>
-      </c>
-      <c r="D38">
-        <v>35.9944598019538</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>7.539023102129907</v>
-      </c>
-      <c r="C39">
-        <v>7.502498495606487</v>
-      </c>
-      <c r="D39">
         <v>18.88548969805147</v>
       </c>
     </row>
